--- a/assets/form/VHK/VHK.xlsx
+++ b/assets/form/VHK/VHK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\VHK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09A2941-E4A7-4C69-A18F-EFF3EAE74D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E513AB-5935-43DA-9358-2688F97D5381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC38CEFC-D967-456F-B137-2EA17F915958}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D667C3-19E9-4A46-8E0E-FD605369706F}">
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/form/VHK/VHK.xlsx
+++ b/assets/form/VHK/VHK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\VHK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E513AB-5935-43DA-9358-2688F97D5381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925C6253-7FCB-478D-9D02-AFD8D4D0F097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC38CEFC-D967-456F-B137-2EA17F915958}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC38CEFC-D967-456F-B137-2EA17F915958}"/>
   </bookViews>
   <sheets>
     <sheet name="VHK" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>(ФИО)</t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">(должность отв. лица)                         </t>
   </si>
   <si>
-    <t xml:space="preserve">(подпись) </t>
-  </si>
-  <si>
     <t>Анализ провел</t>
   </si>
   <si>
@@ -106,13 +103,16 @@
   </si>
   <si>
     <t xml:space="preserve">СТО Газпром 9.1-035-2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(должность)                         </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,25 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -188,36 +207,56 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D667C3-19E9-4A46-8E0E-FD605369706F}">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,200 +591,235 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11"/>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
+      <c r="B2" s="8"/>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
-        <v>23</v>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>22</v>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
+      <c r="A18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="13" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
 </worksheet>
